--- a/Public/doc/ZJ/项目计划_张洁.xlsx
+++ b/Public/doc/ZJ/项目计划_张洁.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>用户押金信息列表展示及退还押金处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金退还记录查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金退还记录查询及快速搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,7 +585,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -899,16 +911,36 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>42865</v>
+      </c>
+      <c r="G13" s="8">
+        <v>42865</v>
+      </c>
+      <c r="H13" s="8">
+        <v>42865</v>
+      </c>
+      <c r="I13" s="8">
+        <v>42865</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
